--- a/public/file/expireTemplate.xlsx
+++ b/public/file/expireTemplate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>sku编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,10 @@
   </si>
   <si>
     <t>PN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -399,21 +403,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="1" max="1" width="20.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1">
+    <row r="1" spans="1:5" ht="23.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -424,6 +429,9 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
